--- a/data/TKB.xlsx
+++ b/data/TKB.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chungtran/Documents/nodejs/tkb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chungtran/Documents/nodejs/tkb/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03D50105-735E-8844-8299-A72FF937D9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED06E5D-74E8-BA49-8D6B-CF9E8FEC7475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{0BF90773-C9F7-2148-B57E-EFCA5407FFBE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="50">
   <si>
     <t>STT</t>
   </si>
@@ -82,12 +82,6 @@
   </si>
   <si>
     <t>HUYENMT3</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>HD</t>
   </si>
   <si>
     <t>PC1702</t>
@@ -179,6 +173,18 @@
   <si>
     <t>PC1718</t>
   </si>
+  <si>
+    <t>Tổng số tiết</t>
+  </si>
+  <si>
+    <t>Số tiết/tuần</t>
+  </si>
+  <si>
+    <t>CHUA CO</t>
+  </si>
+  <si>
+    <t>* Nếu chưa có giáo viên: CHUA CO</t>
+  </si>
 </sst>
 </file>
 
@@ -243,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -323,11 +329,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -350,6 +367,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6208,10 +6226,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBE85B8-A797-7C4F-B6EA-7B024D39CDC3}">
-  <dimension ref="A1:J21"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6271,10 +6290,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -6283,7 +6302,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -6301,10 +6320,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -6313,7 +6332,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -6331,10 +6350,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -6343,13 +6362,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -6361,10 +6380,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -6373,13 +6392,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -6391,10 +6410,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -6403,13 +6422,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -6421,10 +6440,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -6433,28 +6452,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -6463,28 +6482,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -6493,28 +6512,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -6523,28 +6542,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J11" s="8"/>
     </row>
@@ -6553,28 +6572,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J12" s="8"/>
     </row>
@@ -6583,28 +6602,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J13" s="8"/>
     </row>
@@ -6613,28 +6632,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J14" s="8"/>
     </row>
@@ -6643,28 +6662,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="G15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J15" s="8"/>
     </row>
@@ -6673,28 +6692,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J16" s="8"/>
     </row>
@@ -6703,28 +6722,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J17" s="8"/>
     </row>
@@ -6733,28 +6752,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J18" s="8"/>
     </row>
@@ -6763,32 +6782,35 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C20" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="D20">
         <v>92</v>
       </c>
@@ -6809,6 +6831,9 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C21" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="D21">
         <v>6</v>
       </c>
@@ -6826,6 +6851,11 @@
       </c>
       <c r="I21">
         <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/TKB.xlsx
+++ b/data/TKB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chungtran/Documents/nodejs/tkb/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED06E5D-74E8-BA49-8D6B-CF9E8FEC7475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1629FFF-27E5-764A-AFD5-368000EEBC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{0BF90773-C9F7-2148-B57E-EFCA5407FFBE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
   <si>
     <t>STT</t>
   </si>
@@ -179,18 +179,12 @@
   <si>
     <t>Số tiết/tuần</t>
   </si>
-  <si>
-    <t>CHUA CO</t>
-  </si>
-  <si>
-    <t>* Nếu chưa có giáo viên: CHUA CO</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,6 +197,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -6227,10 +6227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBE85B8-A797-7C4F-B6EA-7B024D39CDC3}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6289,12 +6289,8 @@
       <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -6319,12 +6315,8 @@
       <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -6349,12 +6341,8 @@
       <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -6379,12 +6367,8 @@
       <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -6409,12 +6393,8 @@
       <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -6439,12 +6419,8 @@
       <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -6469,12 +6445,8 @@
       <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -6499,12 +6471,8 @@
       <c r="G9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -6529,12 +6497,8 @@
       <c r="G10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -6559,12 +6523,8 @@
       <c r="G11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -6589,12 +6549,8 @@
       <c r="G12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -6619,12 +6575,8 @@
       <c r="G13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -6649,12 +6601,8 @@
       <c r="G14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -6679,12 +6627,8 @@
       <c r="G15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -6709,12 +6653,8 @@
       <c r="G16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -6739,12 +6679,8 @@
       <c r="G17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -6769,12 +6705,8 @@
       <c r="G18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -6799,12 +6731,8 @@
       <c r="G19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -6853,12 +6781,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2:D4">
     <cfRule type="containsText" dxfId="630" priority="603" operator="containsText" text="GD1603">
       <formula>NOT(ISERROR(SEARCH(("GD1603"),(D2))))</formula>
